--- a/Répartition_heures.xlsx
+++ b/Répartition_heures.xlsx
@@ -18,6 +18,579 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Recherche d'idée pour le projet.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Choix du projet parmis les différentes idées et écriture du fichier de description du projet.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Réunion du groupe.
+Rédaction de la planification initiale et du cahier des charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Feedback du professeur concernant les CC.
+Début des projets proprement dits</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Présentation de l'état d'avancement du projet.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fin de l'application, phase de tests des fonctionnalité.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Correction des bugs trouvé lors de la phase de test et finalisation du rapport, guide d'installation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rendu du projet.
+Rapport, Application, guide d'installation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Préparation de la défense orale.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Répartition des heures.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur: 
+S5-13 :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Implémentation client-Serveur, Requête MySql</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Absent pendant l'ascension.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Gantt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur: 
+S5-13 :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Implementation de l'interface graphique du client.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rédaction du cahier des charges.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur: 
+S5-13 :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Implémentation de l'application client</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rédaction du cahier des charges.
+Préparation du git pour le projet.
+Envoie de mails divers.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur: 
+S5-13 :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Implémentation du serveur, et de l'interface graphique du client.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Préparation de Baleinev.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Gantt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+S5-13 :
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Implémentation de l'interface graphique.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rédaction du cahier des charges.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur: 
+S5-13 :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Implémentation de l'interface graphique et du client.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
@@ -130,7 +703,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +718,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -509,11 +1095,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +1184,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -607,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -619,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1">
         <v>6</v>
@@ -628,19 +1214,19 @@
         <v>6</v>
       </c>
       <c r="L5" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" s="1">
         <v>6</v>
       </c>
       <c r="N5" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="4">
@@ -653,7 +1239,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -662,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
         <v>6</v>
@@ -674,28 +1260,28 @@
         <v>18</v>
       </c>
       <c r="I6" s="1">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1">
         <v>8</v>
       </c>
-      <c r="J6" s="1">
-        <v>6</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6</v>
-      </c>
-      <c r="L6" s="1">
-        <v>6</v>
-      </c>
       <c r="M6" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="4">
@@ -708,7 +1294,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -717,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -729,28 +1315,28 @@
         <v>18</v>
       </c>
       <c r="I7" s="1">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6</v>
+      </c>
+      <c r="L7" s="1">
         <v>8</v>
       </c>
-      <c r="J7" s="1">
-        <v>6</v>
-      </c>
-      <c r="K7" s="1">
-        <v>6</v>
-      </c>
-      <c r="L7" s="1">
-        <v>6</v>
-      </c>
       <c r="M7" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="4">
@@ -763,7 +1349,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -772,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <v>6</v>
@@ -784,28 +1370,28 @@
         <v>18</v>
       </c>
       <c r="I8" s="1">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6</v>
+      </c>
+      <c r="L8" s="1">
         <v>8</v>
       </c>
-      <c r="J8" s="1">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1">
-        <v>6</v>
-      </c>
-      <c r="L8" s="1">
-        <v>6</v>
-      </c>
       <c r="M8" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="4">
@@ -818,7 +1404,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -827,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
         <v>6</v>
@@ -839,28 +1425,28 @@
         <v>18</v>
       </c>
       <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6</v>
+      </c>
+      <c r="L9" s="1">
         <v>8</v>
       </c>
-      <c r="J9" s="1">
-        <v>6</v>
-      </c>
-      <c r="K9" s="1">
-        <v>6</v>
-      </c>
-      <c r="L9" s="1">
-        <v>6</v>
-      </c>
       <c r="M9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="14"/>
       <c r="R9" s="4">
@@ -873,7 +1459,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -882,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
         <v>6</v>
@@ -894,28 +1480,28 @@
         <v>18</v>
       </c>
       <c r="I10" s="1">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1">
         <v>8</v>
       </c>
-      <c r="J10" s="1">
-        <v>6</v>
-      </c>
-      <c r="K10" s="1">
-        <v>6</v>
-      </c>
-      <c r="L10" s="1">
-        <v>6</v>
-      </c>
       <c r="M10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N10" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="14"/>
       <c r="R10" s="4">
@@ -929,7 +1515,7 @@
       </c>
       <c r="B11" s="4">
         <f>SUM(B5:B10)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ref="C11:Q11" si="1">SUM(C5:C10)</f>
@@ -941,7 +1527,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
@@ -957,11 +1543,11 @@
       </c>
       <c r="I11" s="4">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
@@ -969,23 +1555,23 @@
       </c>
       <c r="L11" s="4">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="1"/>
@@ -1051,5 +1637,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>